--- a/data/brief/briefP/Parents/b_2.0-3.11_S.xlsx
+++ b/data/brief/briefP/Parents/b_2.0-3.11_S.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Daniel\My_projects\coding\Diagnostic_test\Diascore-backend\data\breif\breifP\Parents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4389997-8602-4FEC-9985-49B1BD122582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>raw score</t>
+  </si>
+  <si>
     <t>inhibition</t>
+  </si>
+  <si>
+    <t>shifting</t>
   </si>
   <si>
     <t>emotional control</t>
@@ -31,26 +31,27 @@
     <t>working memory</t>
   </si>
   <si>
-    <t>raw score</t>
-  </si>
-  <si>
-    <t>shifting</t>
-  </si>
-  <si>
     <t>plan/org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +62,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -73,23 +81,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -100,10 +117,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -141,71 +158,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,50 +246,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -282,7 +302,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -291,7 +311,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -300,7 +320,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -308,10 +328,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -340,7 +360,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -353,13 +373,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -371,306 +390,339 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>51</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>50</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>49</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>91</v>
       </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>89</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
         <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>87</v>
       </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
         <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>86</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
         <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>84</v>
       </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>82</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
         <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>80</v>
       </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
         <v>41</v>
       </c>
       <c r="B12" s="1">
         <v>78</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
         <v>40</v>
       </c>
       <c r="B13" s="1">
         <v>77</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
         <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>75</v>
       </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
         <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>73</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
         <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>71</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
         <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>70</v>
       </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>68</v>
       </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
         <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>66</v>
       </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>64</v>
       </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
         <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>62</v>
       </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>61</v>
       </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1">
         <v>30</v>
       </c>
@@ -690,7 +742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -710,7 +762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -730,7 +782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -750,7 +802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -770,7 +822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -790,7 +842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -810,7 +862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -830,7 +882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1">
         <v>22</v>
       </c>
@@ -850,7 +902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1">
         <v>21</v>
       </c>
@@ -870,7 +922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -890,7 +942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1">
         <v>19</v>
       </c>
@@ -910,7 +962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1">
         <v>18</v>
       </c>
@@ -930,7 +982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -950,7 +1002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -963,99 +1015,108 @@
       <c r="D37" s="1">
         <v>50</v>
       </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1">
         <v>15</v>
       </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="1">
         <v>50</v>
       </c>
       <c r="D38" s="1">
         <v>48</v>
       </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1">
         <v>14</v>
       </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="1">
         <v>48</v>
       </c>
       <c r="D39" s="1">
         <v>45</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1">
         <v>13</v>
       </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="1">
         <v>45</v>
       </c>
       <c r="D40" s="1">
         <v>43</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1">
         <v>12</v>
       </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="1">
         <v>43</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1">
         <v>11</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
         <v>38</v>
       </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
         <v>10</v>
       </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="1">
         <v>38</v>
       </c>
       <c r="D43" s="1">
         <v>35</v>
       </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="1">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E43 A2:B43 D2:D43 C2:C43 F2:F43" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>